--- a/Research/2018/March-Apr 2018/Products/Products_MarApr2018.xlsx
+++ b/Research/2018/March-Apr 2018/Products/Products_MarApr2018.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Research/2018/March-Apr 2018/Products/Products_MarApr2018.xlsx
+++ b/Research/2018/March-Apr 2018/Products/Products_MarApr2018.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>S.No</t>
   </si>
@@ -80,9 +80,6 @@
     <t>shipping price</t>
   </si>
   <si>
-    <t>Paper quilling strips and tools</t>
-  </si>
-  <si>
     <t>Landing Price</t>
   </si>
   <si>
@@ -98,28 +95,13 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Pearl Headset</t>
-  </si>
-  <si>
     <t>Products</t>
   </si>
   <si>
     <t>PRV</t>
   </si>
   <si>
-    <t>Captain America T Shirt</t>
-  </si>
-  <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Anti Theft Bag</t>
   </si>
   <si>
     <t>Magnetic white board sheet - dry ,
@@ -174,6 +156,15 @@
 can target. Try to
 start with multiple
 design’s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is medium level of competition with this product. You can think to start with multiple variations. </t>
+  </si>
+  <si>
+    <t>Magnetic Dry Erase White Board</t>
+  </si>
+  <si>
+    <t>In-Progress</t>
   </si>
 </sst>
 </file>
@@ -224,12 +215,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -617,19 +611,19 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -640,7 +634,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
       </c>
       <c r="K2" s="1"/>
     </row>
@@ -649,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -657,44 +654,44 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -729,85 +726,64 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="55.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>78.5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4">
+        <v>69.5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3">
-        <v>81.5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
